--- a/scenarios_and_results/Scenario_H_tilde.xlsx
+++ b/scenarios_and_results/Scenario_H_tilde.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigi2014/Dropbox/pypsa/github/single_district/scenarios_and_results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F856C6-4242-E24D-97F6-DDA48D220C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="21040" yWindow="1140" windowWidth="17720" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_gen_results" sheetId="1" r:id="rId1"/>
     <sheet name="df_storage_results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>generator_installed_capacity</t>
   </si>
@@ -192,13 +209,16 @@
   </si>
   <si>
     <t>CO2_storage</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,22 +270,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -307,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +370,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,6 +422,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,14 +615,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -691,15 +760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>14971.65978296776</v>
+        <v>14971.659782967759</v>
       </c>
       <c r="C3">
-        <v>5.612575819438955</v>
+        <v>5.6125758194389546</v>
       </c>
       <c r="D3">
         <v>15.25695371693444</v>
@@ -708,28 +777,28 @@
         <v>15.25695371693444</v>
       </c>
       <c r="F3">
-        <v>0.5722591369842759</v>
+        <v>0.57225913698427588</v>
       </c>
       <c r="G3">
-        <v>0.0001525695371693445</v>
+        <v>1.5256953716934451E-4</v>
       </c>
       <c r="H3">
-        <v>0.5724117065214452</v>
+        <v>0.57241170652144524</v>
       </c>
       <c r="I3">
-        <v>0.0001525695371693445</v>
+        <v>1.5256953716934451E-4</v>
       </c>
       <c r="J3">
         <v>15.25695371693444</v>
       </c>
       <c r="K3">
-        <v>0.5724117065214452</v>
+        <v>0.57241170652144524</v>
       </c>
       <c r="L3">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="M3">
-        <v>37.51808631929566</v>
+        <v>37.518086319295662</v>
       </c>
       <c r="N3">
         <v>0.1163305477454854</v>
@@ -738,19 +807,19 @@
         <v>0.1163305477454854</v>
       </c>
       <c r="P3">
-        <v>0.5724117065208549</v>
+        <v>0.57241170652085493</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>37.51808631925697</v>
+        <v>37.518086319256973</v>
       </c>
       <c r="S3">
-        <v>37.51808631929566</v>
+        <v>37.518086319295662</v>
       </c>
       <c r="T3">
-        <v>37.50808631929566</v>
+        <v>37.508086319295657</v>
       </c>
       <c r="U3">
         <v>0.01</v>
@@ -759,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>4.129939350011433</v>
+        <v>4.1299393500114334</v>
       </c>
       <c r="X3">
         <v>11.12701436692301</v>
@@ -768,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -830,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -892,84 +961,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6">
-        <v>741.3384949915019</v>
+        <v>741.33849499150188</v>
       </c>
       <c r="C6">
-        <v>0.3053128457773001</v>
+        <v>0.30531284577730011</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.122552872069707</v>
+        <v>1.1225528720697071</v>
       </c>
       <c r="F6">
-        <v>0.03409696584529072</v>
+        <v>3.4096965845290719E-2</v>
       </c>
       <c r="G6">
-        <v>0.005051487924313684</v>
+        <v>5.0514879243136841E-3</v>
       </c>
       <c r="H6">
-        <v>0.0391484537696044</v>
+        <v>3.9148453769604401E-2</v>
       </c>
       <c r="I6">
-        <v>5.849869921803471E-17</v>
+        <v>5.8498699218034714E-17</v>
       </c>
       <c r="J6">
         <v>1.257722033187747E-15</v>
       </c>
       <c r="K6">
-        <v>0.03409696584529077</v>
+        <v>3.4096965845290768E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.711009662355255E+16</v>
+        <v>2.7110096623552552E+16</v>
       </c>
       <c r="N6">
         <v>1.936707395269648E-16</v>
       </c>
       <c r="O6">
-        <v>0.1728566719474852</v>
+        <v>0.17285667194748519</v>
       </c>
       <c r="P6">
-        <v>0.3328231356749743</v>
+        <v>0.33282313567497429</v>
       </c>
       <c r="Q6">
-        <v>0.2936746819054524</v>
+        <v>0.29367468190545237</v>
       </c>
       <c r="R6">
-        <v>296.4877147045481</v>
+        <v>296.48771470454813</v>
       </c>
       <c r="S6">
-        <v>296.4877147046216</v>
+        <v>296.48771470462162</v>
       </c>
       <c r="T6">
         <v>30.37448541949248</v>
       </c>
       <c r="U6">
-        <v>4.500000000000003</v>
+        <v>4.5000000000000027</v>
       </c>
       <c r="V6">
-        <v>261.613229285129</v>
+        <v>261.61322928512902</v>
       </c>
       <c r="W6">
-        <v>1.122552872069707</v>
+        <v>1.1225528720697071</v>
       </c>
       <c r="X6">
-        <v>6.91074372536418E-17</v>
+        <v>6.9107437253641804E-17</v>
       </c>
       <c r="Y6">
         <v>1.122552872069706</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1031,30 +1100,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>31.08979689686842</v>
+        <v>31.089796896868421</v>
       </c>
       <c r="C8">
-        <v>0.02487183751749474</v>
+        <v>2.4871837517494739E-2</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09409319262178062</v>
+        <v>9.4093192621780619E-2</v>
       </c>
       <c r="F8">
-        <v>0.004950229104063714</v>
+        <v>4.9502291040637138E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.004950229104063714</v>
+        <v>4.9502291040637138E-3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1063,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.004950229104063714</v>
+        <v>4.9502291040637138E-3</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1075,53 +1144,74 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3454905823309438</v>
+        <v>0.34549058233094382</v>
       </c>
       <c r="P8">
-        <v>0.01010499610333421</v>
+        <v>1.0104996103334211E-2</v>
       </c>
       <c r="Q8">
-        <v>0.00515476699927237</v>
+        <v>5.1547669992723696E-3</v>
       </c>
       <c r="R8">
         <v>107.3934874752577</v>
       </c>
       <c r="S8">
-        <v>107.3934874752777</v>
+        <v>107.39348747527769</v>
       </c>
       <c r="T8">
-        <v>52.6098537644671</v>
+        <v>52.609853764467097</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>54.78363371081054</v>
+        <v>54.783633710810541</v>
       </c>
       <c r="W8">
-        <v>0.09409319262178062</v>
+        <v>9.4093192621780619E-2</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.09409319262178062</v>
+        <v>9.4093192621780619E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>SUM(B2:B8)</f>
+        <v>15744.08807485613</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:E10" si="0">SUM(C2:C8)</f>
+        <v>5.9427605027337496</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>15.25695371693444</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>16.473599781625929</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1195,66 +1285,66 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2">
-        <v>4.113856325503943</v>
+        <v>4.1138563255039431</v>
       </c>
       <c r="C2">
-        <v>2.880470372365686</v>
+        <v>2.8804703723656861</v>
       </c>
       <c r="D2">
-        <v>2.880470372364352</v>
+        <v>2.8804703723643521</v>
       </c>
       <c r="E2">
-        <v>247.4187165793535</v>
+        <v>247.41871657935349</v>
       </c>
       <c r="F2">
-        <v>14.29930802668411</v>
+        <v>14.299308026684111</v>
       </c>
       <c r="G2">
-        <v>4.964226733200847</v>
+        <v>4.9642267332008467</v>
       </c>
       <c r="H2">
-        <v>3.537916439935031</v>
+        <v>3.5379164399350311</v>
       </c>
       <c r="I2">
-        <v>3.377000515825258</v>
+        <v>3.3770005158252578</v>
       </c>
       <c r="J2">
         <v>0.2745434707155448</v>
       </c>
       <c r="K2">
-        <v>0.01096754096379859</v>
+        <v>1.0967540963798591E-2</v>
       </c>
       <c r="L2">
         <v>0.2855110116793434</v>
       </c>
       <c r="M2">
-        <v>0.1571675685474105</v>
+        <v>0.15716756854741051</v>
       </c>
       <c r="N2">
-        <v>0.442678580225875</v>
+        <v>0.44267858022587497</v>
       </c>
       <c r="O2">
-        <v>3.537916439935031</v>
+        <v>3.5379164399350311</v>
       </c>
       <c r="P2">
-        <v>125.124091465225</v>
+        <v>125.12409146522501</v>
       </c>
       <c r="Q2">
-        <v>0.1630352828841898</v>
+        <v>0.16303528288418981</v>
       </c>
       <c r="R2">
-        <v>0.1402103432805331</v>
+        <v>0.14021034328053311</v>
       </c>
       <c r="S2">
         <v>1.936139941104716</v>
       </c>
       <c r="T2">
-        <v>0.281710002417364</v>
+        <v>0.28171000241736399</v>
       </c>
       <c r="U2">
         <v>1.654429938687352</v>
@@ -1263,16 +1353,16 @@
         <v>125.1240914649765</v>
       </c>
       <c r="W2">
-        <v>77.60032645671711</v>
+        <v>77.600326456717113</v>
       </c>
       <c r="X2">
         <v>3.1</v>
       </c>
       <c r="Y2">
-        <v>44.42376500850786</v>
+        <v>44.423765008507857</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1292,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1310,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1328,18 +1418,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B4">
-        <v>0.05201202912767435</v>
+        <v>5.2012029127674352E-2</v>
       </c>
       <c r="C4">
-        <v>0.02025457193402675</v>
+        <v>2.0254571934026751E-2</v>
       </c>
       <c r="D4">
-        <v>0.02025457193403513</v>
+        <v>2.0254571934035129E-2</v>
       </c>
       <c r="E4">
         <v>126.8419242609551</v>
@@ -1348,55 +1438,55 @@
         <v>0.3206621707673411</v>
       </c>
       <c r="G4">
-        <v>15.83159455611652</v>
+        <v>15.831594556116521</v>
       </c>
       <c r="H4">
-        <v>0.04067340677782452</v>
+        <v>4.0673406777824522E-2</v>
       </c>
       <c r="I4">
-        <v>0.03888298017855393</v>
+        <v>3.8882980178553933E-2</v>
       </c>
       <c r="J4">
-        <v>0.003296403077031133</v>
+        <v>3.296403077031133E-3</v>
       </c>
       <c r="K4">
-        <v>4.067340677782454E-05</v>
+        <v>4.067340677782454E-5</v>
       </c>
       <c r="L4">
-        <v>0.003337076483808957</v>
+        <v>3.3370764838089569E-3</v>
       </c>
       <c r="M4">
-        <v>0.000447981127955584</v>
+        <v>4.4798112795558397E-4</v>
       </c>
       <c r="N4">
-        <v>0.003785057611765075</v>
+        <v>3.7850576117650749E-3</v>
       </c>
       <c r="O4">
-        <v>0.04067340677782452</v>
+        <v>4.0673406777824522E-2</v>
       </c>
       <c r="P4">
         <v>93.05976340856175</v>
       </c>
       <c r="Q4">
-        <v>0.2931410383191941</v>
+        <v>0.29314103831919408</v>
       </c>
       <c r="R4">
         <v>0.2292362919654202</v>
       </c>
       <c r="S4">
-        <v>0.03856425269663514</v>
+        <v>3.8564252696635139E-2</v>
       </c>
       <c r="T4">
-        <v>0.02153709142888933</v>
+        <v>2.1537091428889332E-2</v>
       </c>
       <c r="U4">
-        <v>0.01702716126774581</v>
+        <v>1.7027161267745811E-2</v>
       </c>
       <c r="V4">
-        <v>93.05976340857485</v>
+        <v>93.059763408574852</v>
       </c>
       <c r="W4">
-        <v>81.04565951501164</v>
+        <v>81.045659515011636</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -1405,18 +1495,18 @@
         <v>11.0141038935501</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B5">
-        <v>6.552841687039662</v>
+        <v>6.5528416870396624</v>
       </c>
       <c r="C5">
-        <v>3.094316574572902</v>
+        <v>3.0943165745729022</v>
       </c>
       <c r="D5">
-        <v>2.289794265183948</v>
+        <v>2.2897942651839478</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1443,63 +1533,63 @@
         <v>0.1627099769416179</v>
       </c>
       <c r="M5">
-        <v>0.1453446833123885</v>
+        <v>0.14534468331238851</v>
       </c>
       <c r="N5">
-        <v>0.3080546602539515</v>
+        <v>0.30805466025395151</v>
       </c>
       <c r="O5">
-        <v>4.84910284840935</v>
+        <v>4.8491028484093501</v>
       </c>
       <c r="P5">
-        <v>63.52817621821684</v>
+        <v>63.528176218216842</v>
       </c>
       <c r="Q5">
-        <v>0.241746851185741</v>
+        <v>0.24174685118574099</v>
       </c>
       <c r="R5">
-        <v>0.241746851185741</v>
+        <v>0.24174685118574099</v>
       </c>
       <c r="S5">
-        <v>1.392442458557806</v>
+        <v>1.3924424585578059</v>
       </c>
       <c r="T5">
-        <v>1.392442458557806</v>
+        <v>1.3924424585578059</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>63.5281762182055</v>
+        <v>63.528176218205502</v>
       </c>
       <c r="W5">
-        <v>33.55465578441827</v>
+        <v>33.554655784418273</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>29.97352043379856</v>
+        <v>29.973520433798559</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.1566951591476834</v>
+        <v>0.15669515914768339</v>
       </c>
       <c r="C6">
-        <v>1.976819045056973</v>
+        <v>1.9768190450569729</v>
       </c>
       <c r="D6">
-        <v>0.755430327550319</v>
+        <v>0.75543032755031903</v>
       </c>
       <c r="E6">
-        <v>64.71141554601627</v>
+        <v>64.711415546016269</v>
       </c>
       <c r="F6">
-        <v>48.42890789068198</v>
+        <v>48.428907890681977</v>
       </c>
       <c r="G6">
         <v>64.10770937370944</v>
@@ -1511,55 +1601,55 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01867529363963489</v>
+        <v>1.8675293639634889E-2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01867529363963489</v>
+        <v>1.8675293639634889E-2</v>
       </c>
       <c r="M6">
-        <v>0.2366820412219511</v>
+        <v>0.23668204122195111</v>
       </c>
       <c r="N6">
-        <v>0.2553573348616031</v>
+        <v>0.25535733486160311</v>
       </c>
       <c r="O6">
-        <v>3.133903182953668</v>
+        <v>3.1339031829536679</v>
       </c>
       <c r="P6">
-        <v>81.48220284868999</v>
+        <v>81.482202848689994</v>
       </c>
       <c r="Q6">
-        <v>0.1900219856176719</v>
+        <v>0.19002198561767189</v>
       </c>
       <c r="R6">
-        <v>0.4735731302494697</v>
+        <v>0.47357313024946968</v>
       </c>
       <c r="S6">
-        <v>0.1424272141278126</v>
+        <v>0.14242721412781259</v>
       </c>
       <c r="T6">
-        <v>0.01166916282297131</v>
+        <v>1.1669162822971309E-2</v>
       </c>
       <c r="U6">
-        <v>0.1307580513048413</v>
+        <v>0.13075805130484131</v>
       </c>
       <c r="V6">
-        <v>81.48220284869544</v>
+        <v>81.482202848695437</v>
       </c>
       <c r="W6">
-        <v>5.959116331741186</v>
+        <v>5.9591163317411864</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>75.52308651694882</v>
+        <v>75.523086516948823</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1567,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5432507337565822</v>
+        <v>0.54325073375658217</v>
       </c>
       <c r="D7">
         <v>1.724043011608144</v>
       </c>
       <c r="E7">
-        <v>1.240800671887697</v>
+        <v>1.2408006718876969</v>
       </c>
       <c r="F7">
-        <v>2103.954433397496</v>
+        <v>2103.9544333974959</v>
       </c>
       <c r="G7">
-        <v>1220.360756217434</v>
+        <v>1220.3607562174341</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1588,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02685016145921514</v>
+        <v>2.6850161459215139E-2</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02685016145921514</v>
+        <v>2.6850161459215139E-2</v>
       </c>
       <c r="M7">
         <v>0.2668245204671284</v>
@@ -1603,51 +1693,51 @@
         <v>0.2936746819054521</v>
       </c>
       <c r="O7">
-        <v>2.610588074580712</v>
+        <v>2.6105880745807122</v>
       </c>
       <c r="P7">
         <v>112.493688600608</v>
       </c>
       <c r="Q7">
-        <v>0.7032997208498626</v>
+        <v>0.70329972084986259</v>
       </c>
       <c r="R7">
-        <v>0.1728566719474851</v>
+        <v>0.17285667194748511</v>
       </c>
       <c r="S7">
-        <v>0.2036383135165291</v>
+        <v>0.20363831351652911</v>
       </c>
       <c r="T7">
-        <v>0.2036383135165291</v>
+        <v>0.20363831351652911</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>112.4936885926055</v>
+        <v>112.49368859260549</v>
       </c>
       <c r="W7">
-        <v>10.28510078654502</v>
+        <v>10.285100786545019</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>102.208587814063</v>
+        <v>102.20858781406299</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.1447319291393245</v>
+        <v>0.14473192913932451</v>
       </c>
       <c r="C8">
-        <v>0.02455489052636414</v>
+        <v>2.4554890526364139E-2</v>
       </c>
       <c r="D8">
-        <v>0.08769603759415764</v>
+        <v>8.7696037594157644E-2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1665,66 +1755,66 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05309195597965524</v>
+        <v>5.3091955979655242E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.05309195597965524</v>
+        <v>5.3091955979655242E-2</v>
       </c>
       <c r="M8">
-        <v>0.03014630165556851</v>
+        <v>3.014630165556851E-2</v>
       </c>
       <c r="N8">
-        <v>0.0832382576351951</v>
+        <v>8.3238257635195101E-2</v>
       </c>
       <c r="O8">
-        <v>0.5168997469261586</v>
+        <v>0.51689974692615859</v>
       </c>
       <c r="P8">
-        <v>161.0336590996913</v>
+        <v>161.03365909969131</v>
       </c>
       <c r="Q8">
-        <v>0.6728561750809557</v>
+        <v>0.67285617508095574</v>
       </c>
       <c r="R8">
         <v>0.6728561750809553</v>
       </c>
       <c r="S8">
-        <v>0.09821956210545657</v>
+        <v>9.821956210545657E-2</v>
       </c>
       <c r="T8">
-        <v>0.09821956210545657</v>
+        <v>9.821956210545657E-2</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>161.0336590996359</v>
+        <v>161.03365909963591</v>
       </c>
       <c r="W8">
-        <v>102.7122885924718</v>
+        <v>102.71228859247179</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>58.32137050721954</v>
+        <v>58.321370507219541</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.2720524983820439</v>
+        <v>0.27205249838204387</v>
       </c>
       <c r="C9">
-        <v>0.04615580926005836</v>
+        <v>4.6155809260058363E-2</v>
       </c>
       <c r="D9">
-        <v>0.1315440563911663</v>
+        <v>0.13154405639116629</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1742,55 +1832,55 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.009470717730171975</v>
+        <v>9.470717730171975E-3</v>
       </c>
       <c r="K9">
-        <v>0.002419090815613134</v>
+        <v>2.4190908156131339E-3</v>
       </c>
       <c r="L9">
-        <v>0.01188980854578511</v>
+        <v>1.188980854578511E-2</v>
       </c>
       <c r="M9">
-        <v>0.01191677095938374</v>
+        <v>1.1916770959383739E-2</v>
       </c>
       <c r="N9">
-        <v>0.02380657950516029</v>
+        <v>2.380657950516029E-2</v>
       </c>
       <c r="O9">
-        <v>0.7753496203888247</v>
+        <v>0.77534962038882471</v>
       </c>
       <c r="P9">
         <v>30.70431567791347</v>
       </c>
       <c r="Q9">
-        <v>0.6728561750809557</v>
+        <v>0.67285617508095574</v>
       </c>
       <c r="R9">
-        <v>0.6728561750809554</v>
+        <v>0.67285617508095541</v>
       </c>
       <c r="S9">
-        <v>0.09208083947381644</v>
+        <v>9.2080839473816442E-2</v>
       </c>
       <c r="T9">
-        <v>0.09208083947381644</v>
+        <v>9.2080839473816442E-2</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>30.70431567790243</v>
+        <v>30.704315677902429</v>
       </c>
       <c r="W9">
         <v>12.21477057720435</v>
       </c>
       <c r="X9">
-        <v>3.120000000000002</v>
+        <v>3.1200000000000019</v>
       </c>
       <c r="Y9">
         <v>15.36954510070913</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1798,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06252604875042606</v>
+        <v>6.2526048750426055E-2</v>
       </c>
       <c r="D10">
-        <v>0.08389996281255559</v>
+        <v>8.3899962812555587E-2</v>
       </c>
       <c r="E10">
-        <v>27.94330583647353</v>
+        <v>27.943305836473531</v>
       </c>
       <c r="F10">
-        <v>3.135557769632286</v>
+        <v>3.1355577696322858</v>
       </c>
       <c r="G10">
-        <v>37.37257639359825</v>
+        <v>37.372576393598251</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1828,31 +1918,31 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.01613158310881612</v>
+        <v>1.6131583108816121E-2</v>
       </c>
       <c r="N10">
-        <v>0.01695346791969254</v>
+        <v>1.6953467919692541E-2</v>
       </c>
       <c r="O10">
-        <v>0.08761784972476577</v>
+        <v>8.7617849724765773E-2</v>
       </c>
       <c r="P10">
-        <v>184.1129765166609</v>
+        <v>184.11297651666089</v>
       </c>
       <c r="Q10">
-        <v>0.1599659316349379</v>
+        <v>0.15996593163493791</v>
       </c>
       <c r="R10">
         <v>0.119213850692156</v>
       </c>
       <c r="S10">
-        <v>0.007927223086451256</v>
+        <v>7.9272230864512565E-3</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.007927223086451256</v>
+        <v>7.9272230864512565E-3</v>
       </c>
       <c r="V10">
         <v>193.4933118416912</v>
@@ -1864,10 +1954,40 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>184.1129765166609</v>
+        <v>184.11297651666089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B9)</f>
+        <v>11.29218962834033</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:I13" si="0">SUM(C2:C9)</f>
+        <v>8.5858219974725927</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>7.8892326426261219</v>
+      </c>
+      <c r="F13">
+        <f>F2+F4</f>
+        <v>14.619970197451451</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.5785898467128558</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>3.4158834960038118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>